--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AC2A94-0E0F-4BA0-AC53-95668DEDEFFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F7DE0D-A73F-4E06-BBBA-2CC4CCDDD7EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>蘑菇仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,51 +372,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>10003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>10004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F7DE0D-A73F-4E06-BBBA-2CC4CCDDD7EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A5336-CDE1-447B-BB34-5DF36F18825F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,26 @@
   </si>
   <si>
     <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始属性（AttrCfg#id:值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:800,3:10,11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成cd（毫秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,57 +392,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10002</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10003</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10004</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A5336-CDE1-447B-BB34-5DF36F18825F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07381A44-1B3F-43F3-AF9C-1140D7EBC5C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>生成cd（毫秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -404,7 +412,7 @@
     <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -414,8 +422,11 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -428,8 +439,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -442,8 +456,11 @@
       <c r="D3">
         <v>5000</v>
       </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -456,8 +473,11 @@
       <c r="D4">
         <v>5000</v>
       </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -470,8 +490,11 @@
       <c r="D5">
         <v>5000</v>
       </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -483,6 +506,9 @@
       </c>
       <c r="D6">
         <v>5000</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07381A44-1B3F-43F3-AF9C-1140D7EBC5C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FADF2E-1933-4672-9DFC-332E46642A72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物品 （物品id:数量:概率,物品id,数量:概率)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20:0.9,10001:1:0.5,30001:1:0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,19 +412,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -425,8 +438,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,8 +458,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -459,8 +478,11 @@
       <c r="E3">
         <v>20</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -476,8 +498,11 @@
       <c r="E4">
         <v>22</v>
       </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -493,8 +518,11 @@
       <c r="E5">
         <v>24</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -509,6 +537,9 @@
       </c>
       <c r="E6">
         <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FADF2E-1933-4672-9DFC-332E46642A72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649693B2-C8D5-4C33-8175-8737F760D49A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:20:0.9,10001:1:0.5,30001:1:0.1</t>
+    <t>1:20:0.9,10001:1:0.7,30001:1:0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649693B2-C8D5-4C33-8175-8737F760D49A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45505564-8477-4F78-8934-E961A50F9680}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,14 @@
   </si>
   <si>
     <t>1:20:0.9,10001:1:0.7,30001:1:0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:100,3:10,11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:20:0.9,2:30:1,10001:1:0.7,10002:2:0.8,30001:1:0.6,30004:1:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +423,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -473,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -490,16 +498,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="E4">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -513,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -533,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E6">
         <v>26</v>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45505564-8477-4F78-8934-E961A50F9680}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E6039-EE19-43EE-93CD-75F151D0E550}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>1:20:0.9,2:30:1,10001:1:0.7,10002:2:0.8,30001:1:0.6,30004:1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -450,7 +454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,8 +473,11 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -490,7 +497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -510,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -530,7 +537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10004</v>
       </c>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E6039-EE19-43EE-93CD-75F151D0E550}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92701E24-6B9E-48F2-8C9D-D6F9C184E931}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>1:20:0.9,2:30:1,10001:1:0.7,10002:2:0.8,30001:1:0.6,30004:1:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,9 +431,10 @@
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="51.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -454,7 +451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,11 +470,8 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -497,7 +491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -517,7 +511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -537,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10004</v>
       </c>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92701E24-6B9E-48F2-8C9D-D6F9C184E931}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3429A7CA-18AA-4634-804C-B038B81AE54E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>1:20:0.9,2:30:1,10001:1:0.7,10002:2:0.8,30001:1:0.6,30004:1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能（技能id:等级,…）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200001:1,200002:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,10 +443,10 @@
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="51.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -450,8 +462,11 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,8 +485,11 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -490,8 +508,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -510,8 +531,11 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10003</v>
       </c>
@@ -530,8 +554,11 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10004</v>
       </c>
@@ -549,6 +576,9 @@
       </c>
       <c r="F6" t="s">
         <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3429A7CA-18AA-4634-804C-B038B81AE54E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68916E7-3850-4134-9722-6433D22F2EE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -523,7 +523,7 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="E4">
         <v>22</v>
@@ -546,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="E5">
         <v>24</v>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="E6">
         <v>26</v>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68916E7-3850-4134-9722-6433D22F2EE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B620DDBF-DC79-471E-A0DB-2181E31DF063}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,34 @@
   </si>
   <si>
     <t>200001:1,200002:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青鳄鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑鳄鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳄鱼王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿船怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝船怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红船怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闹钟啾啾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,14 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="51.77734375" customWidth="1"/>
@@ -581,6 +610,62 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20003</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B620DDBF-DC79-471E-A0DB-2181E31DF063}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A93FB9-BB04-4398-83BD-5A61A3A11536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,6 +617,18 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -625,6 +637,18 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -633,6 +657,18 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -641,6 +677,18 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -649,6 +697,18 @@
       <c r="B11" t="s">
         <v>26</v>
       </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -657,6 +717,18 @@
       <c r="B12" t="s">
         <v>27</v>
       </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -664,6 +736,18 @@
       </c>
       <c r="B13" t="s">
         <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A93FB9-BB04-4398-83BD-5A61A3A11536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E309DE-DFED-438C-97DD-9EF4C53BC1C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>闹钟啾啾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300001:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:800,3:2,11:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +471,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>12000</v>
@@ -584,7 +592,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,7 +675,7 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E309DE-DFED-438C-97DD-9EF4C53BC1C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50B3D0-FF8A-413D-8CC0-F29C1269A754}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:800,3:2,11:30</t>
+    <t>1:800,3:5,11:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50B3D0-FF8A-413D-8CC0-F29C1269A754}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E6A959-337B-4520-B63C-77644DCA8180}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E6A959-337B-4520-B63C-77644DCA8180}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7875298E-4B0C-4EFC-BB20-4286906B3045}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -563,7 +563,7 @@
         <v>12000</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -586,7 +586,7 @@
         <v>12000</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -609,7 +609,7 @@
         <v>12000</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>

--- a/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
+++ b/server/docs/MonsterCfgExcel_com.wan37.config.entity.MonsterCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7875298E-4B0C-4EFC-BB20-4286906B3045}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208DAD08-AC9E-4B7C-A920-6B562BEB68A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红蜗牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蘑菇仔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200001:1,200002:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>青鳄鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,11 +130,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300001:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:800,3:5,11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:1,6:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红蜗牛王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:1,6:1,7:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,6 +194,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -213,7 +281,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,36 +539,36 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="51.77734375" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="7" max="7" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -511,19 +579,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>15000</v>
@@ -543,10 +611,10 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -557,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>12000</v>
@@ -566,10 +634,10 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,10 +645,10 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>12000</v>
@@ -589,10 +657,10 @@
         <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,10 +668,10 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>12000</v>
@@ -612,10 +680,10 @@
         <v>201</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,19 +691,19 @@
         <v>20001</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -643,19 +711,19 @@
         <v>20002</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,19 +731,19 @@
         <v>20003</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,19 +751,19 @@
         <v>30001</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -703,19 +771,19 @@
         <v>30002</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -723,19 +791,19 @@
         <v>30003</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -743,19 +811,19 @@
         <v>30004</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
